--- a/lib/report/benchmark_report/web14/exl/202109/jsliu__bank_test_&_city_(HF)(202109)_Assumption_Report.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202109/jsliu__bank_test_&_city_(HF)(202109)_Assumption_Report.xlsx
@@ -57,7 +57,7 @@
     <t xml:space="preserve">jsliu  bank test &amp; city (HF)</t>
   </si>
   <si>
-    <t>Printed on: 11/03/21 1:51:43 PM</t>
+    <t>Printed on: 01/06/22 5:02:54 AM</t>
   </si>
   <si>
     <t>Deposit Account Models</t>
@@ -381,7 +381,7 @@
     <t>The table is partially printed due to printer size, for more detailed information, please refer to PD&amp;LGD app online.</t>
   </si>
   <si>
-    <t>The THC updated the bank's NMD Prepayment Assumption on 10/13/2021 3:05:12 PM</t>
+    <t>The THC updated the bank's NMD Prepayment Assumption on 12/7/2021 3:56:05 PM</t>
   </si>
   <si>
     <t>Deposit Category</t>
@@ -420,7 +420,7 @@
     <t>NMD Beta Assumption Table(%)</t>
   </si>
   <si>
-    <t>The THC updated the bank's NMD Beta Assumption on 10/13/2021 3:05:12 PM</t>
+    <t>The THC updated the bank's NMD Beta Assumption on 12/7/2021 3:56:05 PM</t>
   </si>
   <si>
     <t>Beta</t>
@@ -872,7 +872,7 @@
     <t>Disclaimer</t>
   </si>
   <si>
-    <t>Printed on: 11/03/21 1:51:44 PM</t>
+    <t>Printed on: 01/06/22 5:02:55 AM</t>
   </si>
   <si>
     <t xml:space="preserve">Overview of the valuation models </t>
@@ -1922,7 +1922,7 @@
     <t xml:space="preserve">The Gross loss table provides the base and general loss assumptions for the loans.  For more detailed information, refer to loan loss app online and THC articles about the credit models. </t>
   </si>
   <si>
-    <t>THC updated the bank's Gross Loss on 10/13/2021 3:05:12 PM, and enable credit OAS model for regulation reports.</t>
+    <t>THC updated the bank's Gross Loss on 12/7/2021 3:56:05 PM, and enable credit OAS model for regulation reports.</t>
   </si>
   <si>
     <t xml:space="preserve">Internal Credit Rating </t>
@@ -7004,7 +7004,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="233" t="s">
-        <v>2</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" ht="5.1" customHeight="1">
@@ -7610,7 +7610,7 @@
       </c>
       <c r="M2" s="233"/>
       <c r="Z2" s="233" t="s">
-        <v>2</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" ht="5.1" customHeight="1">
@@ -25063,7 +25063,7 @@
         <v>376</v>
       </c>
       <c r="B281" s="343">
-        <v>23.799999617040157</v>
+        <v>22.499999031424522</v>
       </c>
       <c r="C281" s="343">
         <v>31.497579653766007</v>
@@ -25143,7 +25143,7 @@
         <v>377</v>
       </c>
       <c r="B282" s="343">
-        <v>23.799999617040157</v>
+        <v>22.499999031424522</v>
       </c>
       <c r="C282" s="343">
         <v>31.497579653766007</v>
@@ -25223,7 +25223,7 @@
         <v>378</v>
       </c>
       <c r="B283" s="343">
-        <v>23.799999617040157</v>
+        <v>22.499999031424522</v>
       </c>
       <c r="C283" s="343">
         <v>31.735642377323472</v>
@@ -25303,7 +25303,7 @@
         <v>379</v>
       </c>
       <c r="B284" s="343">
-        <v>23.799999617040157</v>
+        <v>22.499999031424522</v>
       </c>
       <c r="C284" s="343">
         <v>41.304736581717535</v>
@@ -25383,7 +25383,7 @@
         <v>380</v>
       </c>
       <c r="B285" s="343">
-        <v>23.799999617040157</v>
+        <v>22.499999031424522</v>
       </c>
       <c r="C285" s="343">
         <v>50.834244701558539</v>
@@ -25463,7 +25463,7 @@
         <v>381</v>
       </c>
       <c r="B286" s="343">
-        <v>23.799999617040157</v>
+        <v>22.499999031424522</v>
       </c>
       <c r="C286" s="343">
         <v>60.324525235356504</v>
@@ -25543,7 +25543,7 @@
         <v>382</v>
       </c>
       <c r="B287" s="343">
-        <v>23.799999617040157</v>
+        <v>22.499999031424522</v>
       </c>
       <c r="C287" s="343">
         <v>69.775931688762455</v>
@@ -25623,7 +25623,7 @@
         <v>383</v>
       </c>
       <c r="B288" s="343">
-        <v>23.799999617040157</v>
+        <v>22.499999031424522</v>
       </c>
       <c r="C288" s="343">
         <v>31.497579653766007</v>
@@ -25703,7 +25703,7 @@
         <v>384</v>
       </c>
       <c r="B289" s="343">
-        <v>23.799999617040157</v>
+        <v>22.499999031424522</v>
       </c>
       <c r="C289" s="343">
         <v>38.918636739678661</v>
@@ -25783,7 +25783,7 @@
         <v>385</v>
       </c>
       <c r="B290" s="343">
-        <v>23.799999617040157</v>
+        <v>22.499999031424522</v>
       </c>
       <c r="C290" s="343">
         <v>59.850985153093077</v>
@@ -25863,7 +25863,7 @@
         <v>386</v>
       </c>
       <c r="B291" s="343">
-        <v>23.799999617040157</v>
+        <v>22.499999031424522</v>
       </c>
       <c r="C291" s="343">
         <v>32.45468197186625</v>
@@ -44618,7 +44618,7 @@
         <v>376</v>
       </c>
       <c r="B548" s="343">
-        <v>23.799999617040157</v>
+        <v>22.499999031424522</v>
       </c>
       <c r="C548" s="343">
         <v>31.497579653766007</v>
@@ -44698,7 +44698,7 @@
         <v>377</v>
       </c>
       <c r="B549" s="343">
-        <v>23.799999617040157</v>
+        <v>22.499999031424522</v>
       </c>
       <c r="C549" s="343">
         <v>31.497579653766007</v>
@@ -44778,7 +44778,7 @@
         <v>378</v>
       </c>
       <c r="B550" s="343">
-        <v>23.799999617040157</v>
+        <v>22.499999031424522</v>
       </c>
       <c r="C550" s="343">
         <v>31.735642377323472</v>
@@ -44858,7 +44858,7 @@
         <v>379</v>
       </c>
       <c r="B551" s="343">
-        <v>23.799999617040157</v>
+        <v>22.499999031424522</v>
       </c>
       <c r="C551" s="343">
         <v>41.304736581717535</v>
@@ -44938,7 +44938,7 @@
         <v>380</v>
       </c>
       <c r="B552" s="343">
-        <v>23.799999617040157</v>
+        <v>22.499999031424522</v>
       </c>
       <c r="C552" s="343">
         <v>50.834244701558539</v>
@@ -45018,7 +45018,7 @@
         <v>381</v>
       </c>
       <c r="B553" s="343">
-        <v>23.799999617040157</v>
+        <v>22.499999031424522</v>
       </c>
       <c r="C553" s="343">
         <v>60.324525235356504</v>
@@ -45098,7 +45098,7 @@
         <v>382</v>
       </c>
       <c r="B554" s="343">
-        <v>23.799999617040157</v>
+        <v>22.499999031424522</v>
       </c>
       <c r="C554" s="343">
         <v>69.775931688762455</v>
@@ -45178,7 +45178,7 @@
         <v>383</v>
       </c>
       <c r="B555" s="343">
-        <v>23.799999617040157</v>
+        <v>22.499999031424522</v>
       </c>
       <c r="C555" s="343">
         <v>31.497579653766007</v>
@@ -45258,7 +45258,7 @@
         <v>384</v>
       </c>
       <c r="B556" s="343">
-        <v>23.799999617040157</v>
+        <v>22.499999031424522</v>
       </c>
       <c r="C556" s="343">
         <v>38.918636739678661</v>
@@ -45338,7 +45338,7 @@
         <v>385</v>
       </c>
       <c r="B557" s="343">
-        <v>23.799999617040157</v>
+        <v>22.499999031424522</v>
       </c>
       <c r="C557" s="343">
         <v>59.850985153093077</v>
@@ -45418,7 +45418,7 @@
         <v>386</v>
       </c>
       <c r="B558" s="343">
-        <v>23.799999617040157</v>
+        <v>22.499999031424522</v>
       </c>
       <c r="C558" s="343">
         <v>32.45468197186625</v>
@@ -48280,31 +48280,31 @@
         <v>174</v>
       </c>
       <c r="B12" s="321">
-        <v>-0.000241726486119267</v>
+        <v>-0.000230410758839083</v>
       </c>
       <c r="C12" s="321">
-        <v>0.039776737872657571</v>
+        <v>0.039788053599937756</v>
       </c>
       <c r="D12" s="321">
-        <v>0.089738032621292665</v>
+        <v>0.089749348348572844</v>
       </c>
       <c r="E12" s="321">
-        <v>0.53103232696001</v>
+        <v>0.53104364268729021</v>
       </c>
       <c r="F12" s="321">
-        <v>0.98856143764325144</v>
+        <v>0.98857275337053163</v>
       </c>
       <c r="G12" s="321">
-        <v>1.3399070812932534</v>
+        <v>1.3399183970205335</v>
       </c>
       <c r="H12" s="321">
-        <v>1.5475372664438305</v>
+        <v>1.5475485821711106</v>
       </c>
       <c r="I12" s="321">
-        <v>2.106540919457343</v>
+        <v>2.1065522351846231</v>
       </c>
       <c r="J12" s="321">
-        <v>2.1528735529219714</v>
+        <v>2.1528848686492514</v>
       </c>
       <c r="K12" s="321">
         <v>0</v>
@@ -48396,31 +48396,31 @@
         <v>178</v>
       </c>
       <c r="B16" s="321">
-        <v>0.870320613607122</v>
+        <v>0.869899837414661</v>
       </c>
       <c r="C16" s="321">
-        <v>0.91033907796589886</v>
+        <v>0.90991830177343791</v>
       </c>
       <c r="D16" s="321">
-        <v>0.960300372714534</v>
+        <v>0.959879596522073</v>
       </c>
       <c r="E16" s="321">
-        <v>1.4015946670532513</v>
+        <v>1.4011738908607905</v>
       </c>
       <c r="F16" s="321">
-        <v>1.8591237777364928</v>
+        <v>1.8587030015440318</v>
       </c>
       <c r="G16" s="321">
-        <v>2.2104694213864944</v>
+        <v>2.2100486451940338</v>
       </c>
       <c r="H16" s="321">
-        <v>2.4180996065370719</v>
+        <v>2.4176788303446108</v>
       </c>
       <c r="I16" s="321">
-        <v>2.9771032595505842</v>
+        <v>2.9766824833581231</v>
       </c>
       <c r="J16" s="321">
-        <v>3.0234358930152125</v>
+        <v>3.0230151168227515</v>
       </c>
       <c r="K16" s="321">
         <v>0.597458919753151</v>
@@ -48437,31 +48437,31 @@
         <v>180</v>
       </c>
       <c r="B17" s="322">
-        <v>0.870320613607122</v>
+        <v>0.869899837414661</v>
       </c>
       <c r="C17" s="322">
-        <v>0.91033907796589886</v>
+        <v>0.90991830177343791</v>
       </c>
       <c r="D17" s="322">
-        <v>0.960300372714534</v>
+        <v>0.959879596522073</v>
       </c>
       <c r="E17" s="322">
-        <v>1.4015946670532513</v>
+        <v>1.4011738908607905</v>
       </c>
       <c r="F17" s="322">
-        <v>1.8591237777364928</v>
+        <v>1.8587030015440318</v>
       </c>
       <c r="G17" s="322">
-        <v>2.2104694213864944</v>
+        <v>2.2100486451940338</v>
       </c>
       <c r="H17" s="322">
-        <v>2.4180996065370719</v>
+        <v>2.4176788303446108</v>
       </c>
       <c r="I17" s="322">
-        <v>2.9771032595505842</v>
+        <v>2.9766824833581231</v>
       </c>
       <c r="J17" s="322">
-        <v>3.0234358930152125</v>
+        <v>3.0230151168227515</v>
       </c>
       <c r="K17" s="322">
         <v>0.597458919753151</v>
@@ -48495,31 +48495,31 @@
         <v>182</v>
       </c>
       <c r="B19" s="321">
-        <v>1.2880632617067</v>
+        <v>1.28780162006304</v>
       </c>
       <c r="C19" s="321">
-        <v>1.3280817260654769</v>
+        <v>1.3278200844218169</v>
       </c>
       <c r="D19" s="321">
-        <v>1.3780430208141119</v>
+        <v>1.3777813791704519</v>
       </c>
       <c r="E19" s="321">
-        <v>1.8193373151528294</v>
+        <v>1.8190756735091693</v>
       </c>
       <c r="F19" s="321">
-        <v>2.2768664258360709</v>
+        <v>2.2766047841924109</v>
       </c>
       <c r="G19" s="321">
-        <v>2.6282120694860724</v>
+        <v>2.6279504278424124</v>
       </c>
       <c r="H19" s="321">
-        <v>2.83584225463665</v>
+        <v>2.83558061299299</v>
       </c>
       <c r="I19" s="321">
-        <v>3.3948459076501623</v>
+        <v>3.3945842660065022</v>
       </c>
       <c r="J19" s="321">
-        <v>3.4411785411147906</v>
+        <v>3.4409168994711306</v>
       </c>
       <c r="K19" s="321">
         <v>0.73823934992791584</v>
@@ -48536,31 +48536,31 @@
         <v>183</v>
       </c>
       <c r="B20" s="322">
-        <v>1.2880632617067</v>
+        <v>1.28780162006304</v>
       </c>
       <c r="C20" s="322">
-        <v>1.3280817260654769</v>
+        <v>1.3278200844218169</v>
       </c>
       <c r="D20" s="322">
-        <v>1.3780430208141119</v>
+        <v>1.3777813791704519</v>
       </c>
       <c r="E20" s="322">
-        <v>1.8193373151528294</v>
+        <v>1.8190756735091693</v>
       </c>
       <c r="F20" s="322">
-        <v>2.2768664258360709</v>
+        <v>2.2766047841924109</v>
       </c>
       <c r="G20" s="322">
-        <v>2.6282120694860724</v>
+        <v>2.6279504278424124</v>
       </c>
       <c r="H20" s="322">
-        <v>2.83584225463665</v>
+        <v>2.83558061299299</v>
       </c>
       <c r="I20" s="322">
-        <v>3.3948459076501623</v>
+        <v>3.3945842660065022</v>
       </c>
       <c r="J20" s="322">
-        <v>3.4411785411147906</v>
+        <v>3.4409168994711306</v>
       </c>
       <c r="K20" s="322">
         <v>0.73823934992791584</v>
@@ -48577,31 +48577,31 @@
         <v>184</v>
       </c>
       <c r="B21" s="322">
-        <v>0.92266501381280708</v>
+        <v>0.92226417714660336</v>
       </c>
       <c r="C21" s="322">
-        <v>0.962683478171584</v>
+        <v>0.96228264150538023</v>
       </c>
       <c r="D21" s="322">
-        <v>1.012644772920219</v>
+        <v>1.0122439362540152</v>
       </c>
       <c r="E21" s="322">
-        <v>1.4539390672589363</v>
+        <v>1.4535382305927327</v>
       </c>
       <c r="F21" s="322">
-        <v>1.9114681779421778</v>
+        <v>1.9110673412759742</v>
       </c>
       <c r="G21" s="322">
-        <v>2.2628138215921796</v>
+        <v>2.2624129849259758</v>
       </c>
       <c r="H21" s="322">
-        <v>2.4704440067427567</v>
+        <v>2.4700431700765533</v>
       </c>
       <c r="I21" s="322">
-        <v>3.0294476597562694</v>
+        <v>3.0290468230900656</v>
       </c>
       <c r="J21" s="322">
-        <v>3.0757802932208977</v>
+        <v>3.0753794565546939</v>
       </c>
       <c r="K21" s="322">
         <v>0.61507176245094963</v>
@@ -48618,31 +48618,31 @@
         <v>185</v>
       </c>
       <c r="B22" s="322">
-        <v>0.3617102895345648</v>
+        <v>0.36162364733518831</v>
       </c>
       <c r="C22" s="322">
-        <v>0.40172875389334162</v>
+        <v>0.40164211169396513</v>
       </c>
       <c r="D22" s="322">
-        <v>0.4516900486419767</v>
+        <v>0.45160340644260022</v>
       </c>
       <c r="E22" s="322">
-        <v>0.89298434298069407</v>
+        <v>0.89289770078131769</v>
       </c>
       <c r="F22" s="322">
-        <v>1.3505134536639356</v>
+        <v>1.350426811464559</v>
       </c>
       <c r="G22" s="322">
-        <v>1.7018590973139374</v>
+        <v>1.701772455114561</v>
       </c>
       <c r="H22" s="322">
-        <v>1.9094892824645144</v>
+        <v>1.9094026402651381</v>
       </c>
       <c r="I22" s="322">
-        <v>2.468492935478027</v>
+        <v>2.4684062932786506</v>
       </c>
       <c r="J22" s="322">
-        <v>2.5148255689426553</v>
+        <v>2.5147389267432789</v>
       </c>
       <c r="K22" s="322">
         <v>0.14453809689282221</v>
@@ -48949,31 +48949,31 @@
         <v>196</v>
       </c>
       <c r="B33" s="321">
-        <v>0.88149817184587109</v>
+        <v>0.881499456473086</v>
       </c>
       <c r="C33" s="321">
-        <v>0.921516636204648</v>
+        <v>0.9215179208318629</v>
       </c>
       <c r="D33" s="321">
-        <v>0.971477930953283</v>
+        <v>0.971479215580498</v>
       </c>
       <c r="E33" s="321">
-        <v>1.4127722252920005</v>
+        <v>1.4127735099192154</v>
       </c>
       <c r="F33" s="321">
-        <v>1.8703013359752418</v>
+        <v>1.8703026206024567</v>
       </c>
       <c r="G33" s="321">
-        <v>2.2216469796252438</v>
+        <v>2.2216482642524586</v>
       </c>
       <c r="H33" s="321">
-        <v>2.4292771647758209</v>
+        <v>2.4292784494030357</v>
       </c>
       <c r="I33" s="321">
-        <v>2.9882808177893332</v>
+        <v>2.988282102416548</v>
       </c>
       <c r="J33" s="321">
-        <v>3.0346134512539615</v>
+        <v>3.0346147358811768</v>
       </c>
       <c r="K33" s="321">
         <v>0.206140210790783</v>
@@ -49031,31 +49031,31 @@
         <v>198</v>
       </c>
       <c r="B35" s="322">
-        <v>0.88562423480900465</v>
+        <v>0.88562553470339733</v>
       </c>
       <c r="C35" s="322">
-        <v>0.92564269916778152</v>
+        <v>0.92564399906217421</v>
       </c>
       <c r="D35" s="322">
-        <v>0.97560399391641661</v>
+        <v>0.97560529381080929</v>
       </c>
       <c r="E35" s="322">
-        <v>1.416898288255134</v>
+        <v>1.4168995881495268</v>
       </c>
       <c r="F35" s="322">
-        <v>1.8744273989383755</v>
+        <v>1.8744286988327681</v>
       </c>
       <c r="G35" s="322">
-        <v>2.2257730425883775</v>
+        <v>2.22577434248277</v>
       </c>
       <c r="H35" s="322">
-        <v>2.4334032277389541</v>
+        <v>2.4334045276333471</v>
       </c>
       <c r="I35" s="322">
-        <v>2.9924068807524669</v>
+        <v>2.9924081806468594</v>
       </c>
       <c r="J35" s="322">
-        <v>3.0387395142170952</v>
+        <v>3.0387408141114878</v>
       </c>
       <c r="K35" s="322">
         <v>0.2060786153016885</v>
@@ -49072,31 +49072,31 @@
         <v>199</v>
       </c>
       <c r="B36" s="322">
-        <v>0.89855655535899248</v>
+        <v>0.89855790275231462</v>
       </c>
       <c r="C36" s="322">
-        <v>0.93857501971776935</v>
+        <v>0.93857636711109149</v>
       </c>
       <c r="D36" s="322">
-        <v>0.98853631446640444</v>
+        <v>0.98853766185972658</v>
       </c>
       <c r="E36" s="322">
-        <v>1.4298306088051218</v>
+        <v>1.4298319561984441</v>
       </c>
       <c r="F36" s="322">
-        <v>1.8873597194883631</v>
+        <v>1.8873610668816854</v>
       </c>
       <c r="G36" s="322">
-        <v>2.2387053631383651</v>
+        <v>2.2387067105316873</v>
       </c>
       <c r="H36" s="322">
-        <v>2.4463355482889422</v>
+        <v>2.4463368956822644</v>
       </c>
       <c r="I36" s="322">
-        <v>3.0053392013024549</v>
+        <v>3.0053405486957767</v>
       </c>
       <c r="J36" s="322">
-        <v>3.0516718347670828</v>
+        <v>3.0516731821604051</v>
       </c>
       <c r="K36" s="322">
         <v>0.20590102694840623</v>
@@ -49253,31 +49253,31 @@
         <v>204</v>
       </c>
       <c r="B41" s="322">
-        <v>0.92778560805488619</v>
+        <v>0.92778677177183522</v>
       </c>
       <c r="C41" s="322">
-        <v>0.96780407241366306</v>
+        <v>0.96780523613061209</v>
       </c>
       <c r="D41" s="322">
-        <v>1.0177653671622982</v>
+        <v>1.0177665308792472</v>
       </c>
       <c r="E41" s="322">
-        <v>1.4590596615010156</v>
+        <v>1.4590608252179647</v>
       </c>
       <c r="F41" s="322">
-        <v>1.9165887721842569</v>
+        <v>1.916589935901206</v>
       </c>
       <c r="G41" s="322">
-        <v>2.2679344158342589</v>
+        <v>2.2679355795512079</v>
       </c>
       <c r="H41" s="322">
-        <v>2.475564600984836</v>
+        <v>2.475565764701785</v>
       </c>
       <c r="I41" s="322">
-        <v>3.0345682539983483</v>
+        <v>3.0345694177152973</v>
       </c>
       <c r="J41" s="322">
-        <v>3.0809008874629766</v>
+        <v>3.0809020511799257</v>
       </c>
       <c r="K41" s="322">
         <v>0.20448297038096652</v>
@@ -49598,31 +49598,31 @@
         <v>213</v>
       </c>
       <c r="B50" s="322">
-        <v>1.0399178703650793</v>
+        <v>1.0399192737336127</v>
       </c>
       <c r="C50" s="322">
-        <v>1.0799363347238562</v>
+        <v>1.0799377380923896</v>
       </c>
       <c r="D50" s="322">
-        <v>1.1298976294724912</v>
+        <v>1.1298990328410246</v>
       </c>
       <c r="E50" s="322">
-        <v>1.5711919238112087</v>
+        <v>1.571193327179742</v>
       </c>
       <c r="F50" s="322">
-        <v>2.02872103449445</v>
+        <v>2.0287224378629833</v>
       </c>
       <c r="G50" s="322">
-        <v>2.3800666781444519</v>
+        <v>2.3800680815129853</v>
       </c>
       <c r="H50" s="322">
-        <v>2.587696863295029</v>
+        <v>2.5876982666635624</v>
       </c>
       <c r="I50" s="322">
-        <v>3.1467005163085418</v>
+        <v>3.1467019196770751</v>
       </c>
       <c r="J50" s="322">
-        <v>3.1930331497731697</v>
+        <v>3.193034553141703</v>
       </c>
       <c r="K50" s="322">
         <v>0.20346851333661659</v>
@@ -49820,31 +49820,31 @@
         <v>166</v>
       </c>
       <c r="B56" s="322">
-        <v>0.76942522695907645</v>
+        <v>0.76942263000403577</v>
       </c>
       <c r="C56" s="322">
-        <v>0.80944369131785332</v>
+        <v>0.80944109436281264</v>
       </c>
       <c r="D56" s="322">
-        <v>0.85940498606648841</v>
+        <v>0.85940238911144773</v>
       </c>
       <c r="E56" s="322">
-        <v>1.3006992804052058</v>
+        <v>1.3006966834501652</v>
       </c>
       <c r="F56" s="322">
-        <v>1.7582283910884473</v>
+        <v>1.7582257941334065</v>
       </c>
       <c r="G56" s="322">
-        <v>2.1095740347384488</v>
+        <v>2.1095714377834085</v>
       </c>
       <c r="H56" s="322">
-        <v>2.3172042198890264</v>
+        <v>2.3172016229339856</v>
       </c>
       <c r="I56" s="322">
-        <v>2.8762078729025387</v>
+        <v>2.8762052759474979</v>
       </c>
       <c r="J56" s="322">
-        <v>2.922540506367167</v>
+        <v>2.9225379094121262</v>
       </c>
       <c r="K56" s="322">
         <v>0.14887908801306621</v>
@@ -50773,34 +50773,34 @@
         <v>128</v>
       </c>
       <c r="B15" s="321">
-        <v>28.190439338434096</v>
+        <v>28.1922821108678</v>
       </c>
       <c r="C15" s="321">
-        <v>27.327481114079298</v>
+        <v>27.3267492625201</v>
       </c>
       <c r="D15" s="321">
-        <v>26.6601421787508</v>
+        <v>26.659568676790002</v>
       </c>
       <c r="E15" s="321">
-        <v>25.088268626646197</v>
+        <v>25.087931537214704</v>
       </c>
       <c r="F15" s="321">
-        <v>22.7492886963411</v>
+        <v>22.7490906014141</v>
       </c>
       <c r="G15" s="321">
-        <v>20.815909914246898</v>
+        <v>20.8158534369178</v>
       </c>
       <c r="H15" s="321">
-        <v>18.2195793325541</v>
+        <v>18.219292147331203</v>
       </c>
       <c r="I15" s="321">
-        <v>16.2251529940642</v>
+        <v>16.225158826279202</v>
       </c>
       <c r="J15" s="321">
-        <v>14.540795892470301</v>
+        <v>14.540790865144201</v>
       </c>
       <c r="K15" s="321">
-        <v>17.615140208567702</v>
+        <v>17.6150489850232</v>
       </c>
       <c r="L15" s="288" t="s">
         <v>21</v>
@@ -51153,34 +51153,34 @@
         <v>139</v>
       </c>
       <c r="B25" s="322">
-        <v>19.030704036023671</v>
+        <v>19.031816994439321</v>
       </c>
       <c r="C25" s="322">
-        <v>18.509512921982758</v>
+        <v>18.509070913877512</v>
       </c>
       <c r="D25" s="322">
-        <v>18.106467777734565</v>
+        <v>18.106121406244526</v>
       </c>
       <c r="E25" s="322">
-        <v>17.157121099294827</v>
+        <v>17.156917511205076</v>
       </c>
       <c r="F25" s="322">
-        <v>15.74447387581194</v>
+        <v>15.744354234660344</v>
       </c>
       <c r="G25" s="322">
-        <v>14.576792988163815</v>
+        <v>14.576758878190404</v>
       </c>
       <c r="H25" s="322">
-        <v>13.008716621813862</v>
+        <v>13.008543173804313</v>
       </c>
       <c r="I25" s="322">
-        <v>11.804165549736343</v>
+        <v>11.804169072153245</v>
       </c>
       <c r="J25" s="322">
-        <v>10.786883485347481</v>
+        <v>10.786880449050219</v>
       </c>
       <c r="K25" s="322">
-        <v>12.643660396739213</v>
+        <v>12.64360530148724</v>
       </c>
       <c r="L25" s="323" t="s">
         <v>4</v>
@@ -51285,34 +51285,34 @@
         <v>143</v>
       </c>
       <c r="B29" s="321">
-        <v>15.559708500978397</v>
+        <v>15.5636208399219</v>
       </c>
       <c r="C29" s="321">
-        <v>14.950385566222598</v>
+        <v>14.9489567538552</v>
       </c>
       <c r="D29" s="321">
-        <v>12.3292908528277</v>
+        <v>12.3246035093953</v>
       </c>
       <c r="E29" s="321">
-        <v>9.77949761370258</v>
+        <v>9.77764265527526</v>
       </c>
       <c r="F29" s="321">
-        <v>7.97827447177209</v>
+        <v>7.9767971237795194</v>
       </c>
       <c r="G29" s="321">
-        <v>6.30737459227422</v>
+        <v>6.30555887533072</v>
       </c>
       <c r="H29" s="321">
-        <v>4.09737966553645</v>
+        <v>4.0968526105528005</v>
       </c>
       <c r="I29" s="321">
-        <v>3.30067367827939</v>
+        <v>3.3004846161226897</v>
       </c>
       <c r="J29" s="321">
-        <v>2.8268606249433</v>
+        <v>2.82676383181717</v>
       </c>
       <c r="K29" s="321">
-        <v>4.06801191085006</v>
+        <v>4.06733490831932</v>
       </c>
       <c r="L29" s="288" t="s">
         <v>21</v>
@@ -51323,34 +51323,34 @@
         <v>144</v>
       </c>
       <c r="B30" s="321">
-        <v>12.7355028964921</v>
+        <v>12.739289230760202</v>
       </c>
       <c r="C30" s="321">
-        <v>12.634972941762099</v>
+        <v>12.6335101836346</v>
       </c>
       <c r="D30" s="321">
-        <v>10.9027130318523</v>
+        <v>10.8995808677766</v>
       </c>
       <c r="E30" s="321">
-        <v>8.93154054224237</v>
+        <v>8.9291977990103</v>
       </c>
       <c r="F30" s="321">
-        <v>7.63427996807938</v>
+        <v>7.63139133538228</v>
       </c>
       <c r="G30" s="321">
-        <v>6.28733170688627</v>
+        <v>6.28487594672798</v>
       </c>
       <c r="H30" s="321">
-        <v>5.7144531000355911</v>
+        <v>5.71310313271249</v>
       </c>
       <c r="I30" s="321">
-        <v>6.0236124216759706</v>
+        <v>6.0229586185232611</v>
       </c>
       <c r="J30" s="321">
-        <v>6.51952661172242</v>
+        <v>6.5191592742247106</v>
       </c>
       <c r="K30" s="321">
-        <v>6.266979213122589</v>
+        <v>6.26620397572934</v>
       </c>
       <c r="L30" s="288" t="s">
         <v>21</v>
@@ -51361,34 +51361,34 @@
         <v>145</v>
       </c>
       <c r="B31" s="322">
-        <v>3.5734052424622527</v>
+        <v>3.5743209136445131</v>
       </c>
       <c r="C31" s="322">
-        <v>3.4451764738260318</v>
+        <v>3.4448397136740652</v>
       </c>
       <c r="D31" s="322">
-        <v>2.8553667957093154</v>
+        <v>2.8543110206045119</v>
       </c>
       <c r="E31" s="322">
-        <v>2.2731923101432017</v>
+        <v>2.2727420655205535</v>
       </c>
       <c r="F31" s="322">
-        <v>1.8647322802119084</v>
+        <v>1.864343621057784</v>
       </c>
       <c r="G31" s="322">
-        <v>1.481605140917061</v>
+        <v>1.4811596414428063</v>
       </c>
       <c r="H31" s="322">
-        <v>1.0104006879543346</v>
+        <v>1.0102526398401939</v>
       </c>
       <c r="I31" s="322">
-        <v>0.85569182987927439</v>
+        <v>0.85563373815902388</v>
       </c>
       <c r="J31" s="322">
-        <v>0.7728584078003129</v>
+        <v>0.77282770807028356</v>
       </c>
       <c r="K31" s="322">
-        <v>1.0206069826287594</v>
+        <v>1.0204450030997512</v>
       </c>
       <c r="L31" s="323" t="s">
         <v>4</v>
@@ -51702,34 +51702,34 @@
         <v>128</v>
       </c>
       <c r="B47" s="321">
-        <v>29.4278419059473</v>
+        <v>29.427520665693503</v>
       </c>
       <c r="C47" s="321">
-        <v>27.861528167859102</v>
+        <v>27.8619416150245</v>
       </c>
       <c r="D47" s="321">
-        <v>26.4796453811722</v>
+        <v>26.479752744315597</v>
       </c>
       <c r="E47" s="321">
-        <v>25.435783248364203</v>
+        <v>25.4359693284899</v>
       </c>
       <c r="F47" s="321">
-        <v>23.9111137691259</v>
+        <v>23.9108161940659</v>
       </c>
       <c r="G47" s="321">
-        <v>22.7211068351776</v>
+        <v>22.721646489410098</v>
       </c>
       <c r="H47" s="321">
-        <v>21.1477462117154</v>
+        <v>21.147861775111302</v>
       </c>
       <c r="I47" s="321">
-        <v>19.7561455736581</v>
+        <v>19.756489266752002</v>
       </c>
       <c r="J47" s="321">
-        <v>18.5469397376419</v>
+        <v>18.5469061809172</v>
       </c>
       <c r="K47" s="321">
-        <v>22.8775624039702</v>
+        <v>22.878691787120502</v>
       </c>
       <c r="L47" s="288" t="s">
         <v>21</v>
@@ -52082,34 +52082,34 @@
         <v>139</v>
       </c>
       <c r="B57" s="322">
-        <v>19.840339260374517</v>
+        <v>19.840145244533293</v>
       </c>
       <c r="C57" s="322">
-        <v>18.894350521332822</v>
+        <v>18.894600226339115</v>
       </c>
       <c r="D57" s="322">
-        <v>18.059750519427361</v>
+        <v>18.059815362330252</v>
       </c>
       <c r="E57" s="322">
-        <v>17.429300909052664</v>
+        <v>17.429413293760671</v>
       </c>
       <c r="F57" s="322">
-        <v>16.508463564074312</v>
+        <v>16.508283841032412</v>
       </c>
       <c r="G57" s="322">
-        <v>15.789748643104652</v>
+        <v>15.790074571965217</v>
       </c>
       <c r="H57" s="322">
-        <v>14.839504032531576</v>
+        <v>14.839573828048186</v>
       </c>
       <c r="I57" s="322">
-        <v>13.999034849848377</v>
+        <v>13.999242426277384</v>
       </c>
       <c r="J57" s="322">
-        <v>13.268724676676122</v>
+        <v>13.268704409800805</v>
       </c>
       <c r="K57" s="322">
-        <v>15.884241497096355</v>
+        <v>15.884923597858572</v>
       </c>
       <c r="L57" s="323" t="s">
         <v>4</v>
@@ -52214,34 +52214,34 @@
         <v>143</v>
       </c>
       <c r="B61" s="321">
-        <v>16.4592303023842</v>
+        <v>16.463685515162798</v>
       </c>
       <c r="C61" s="321">
-        <v>13.7119715574089</v>
+        <v>13.7101583578967</v>
       </c>
       <c r="D61" s="321">
-        <v>12.2292701307975</v>
+        <v>12.2274779726818</v>
       </c>
       <c r="E61" s="321">
-        <v>11.358717955894699</v>
+        <v>11.3579622509224</v>
       </c>
       <c r="F61" s="321">
-        <v>10.729725475197501</v>
+        <v>10.7288560036635</v>
       </c>
       <c r="G61" s="321">
-        <v>10.1915483870064</v>
+        <v>10.190623851441</v>
       </c>
       <c r="H61" s="321">
-        <v>9.38916157264363</v>
+        <v>9.38843209659537</v>
       </c>
       <c r="I61" s="321">
-        <v>8.785668131470791</v>
+        <v>8.7852005898806311</v>
       </c>
       <c r="J61" s="321">
-        <v>8.13818936088254</v>
+        <v>8.13876507369251</v>
       </c>
       <c r="K61" s="321">
-        <v>10.0080478348021</v>
+        <v>10.0077512898923</v>
       </c>
       <c r="L61" s="288" t="s">
         <v>21</v>
@@ -52252,34 +52252,34 @@
         <v>144</v>
       </c>
       <c r="B62" s="321">
-        <v>12.239034465634301</v>
+        <v>12.2411416726717</v>
       </c>
       <c r="C62" s="321">
-        <v>11.8442643264695</v>
+        <v>11.842179203370298</v>
       </c>
       <c r="D62" s="321">
-        <v>12.342202298574199</v>
+        <v>12.340234118470498</v>
       </c>
       <c r="E62" s="321">
-        <v>13.2418229897762</v>
+        <v>13.239096728660599</v>
       </c>
       <c r="F62" s="321">
-        <v>14.266457908088</v>
+        <v>14.2642834465323</v>
       </c>
       <c r="G62" s="321">
-        <v>15.1264621429274</v>
+        <v>15.125149440859302</v>
       </c>
       <c r="H62" s="321">
-        <v>16.571095568826</v>
+        <v>16.570932518813102</v>
       </c>
       <c r="I62" s="321">
-        <v>17.2790568386509</v>
+        <v>17.2796092351474</v>
       </c>
       <c r="J62" s="321">
-        <v>17.099460220664</v>
+        <v>17.1001720812244</v>
       </c>
       <c r="K62" s="321">
-        <v>15.8606848171644</v>
+        <v>15.8595933964015</v>
       </c>
       <c r="L62" s="288" t="s">
         <v>21</v>
@@ -52290,34 +52290,34 @@
         <v>145</v>
       </c>
       <c r="B63" s="322">
-        <v>3.7437455854537021</v>
+        <v>3.7447235023751873</v>
       </c>
       <c r="C63" s="322">
-        <v>3.1673191958600189</v>
+        <v>3.1668851105935696</v>
       </c>
       <c r="D63" s="322">
-        <v>2.8771237551465432</v>
+        <v>2.8766974339629088</v>
       </c>
       <c r="E63" s="322">
-        <v>2.7245919747067657</v>
+        <v>2.7243564547990986</v>
       </c>
       <c r="F63" s="322">
-        <v>2.6253988346852912</v>
+        <v>2.6251561478133523</v>
       </c>
       <c r="G63" s="322">
-        <v>2.5400367036131057</v>
+        <v>2.5398080314178908</v>
       </c>
       <c r="H63" s="322">
-        <v>2.417542561364451</v>
+        <v>2.41738779174778</v>
       </c>
       <c r="I63" s="322">
-        <v>2.3142817462549647</v>
+        <v>2.3142018627748109</v>
       </c>
       <c r="J63" s="322">
-        <v>2.1758838215974552</v>
+        <v>2.1760231132920929</v>
       </c>
       <c r="K63" s="322">
-        <v>2.5238960357936691</v>
+        <v>2.52380298040085</v>
       </c>
       <c r="L63" s="323" t="s">
         <v>4</v>
@@ -55916,7 +55916,7 @@
         <v>477</v>
       </c>
       <c r="B30" s="321">
-        <v>3.78000000938773</v>
+        <v>3.76700000353158</v>
       </c>
       <c r="C30" s="237" t="s">
         <v>405</v>
@@ -56134,7 +56134,7 @@
         <v>483</v>
       </c>
       <c r="B35" s="321">
-        <v>3.78000000938773</v>
+        <v>3.76700000353158</v>
       </c>
       <c r="C35" s="237" t="s">
         <v>405</v>
@@ -59011,34 +59011,34 @@
         <v>128</v>
       </c>
       <c r="B13" s="321">
-        <v>1.16254783939262</v>
+        <v>1.1625420668263098</v>
       </c>
       <c r="C13" s="321">
-        <v>1.15272020656363</v>
+        <v>1.15270768529785</v>
       </c>
       <c r="D13" s="321">
-        <v>1.14478878181836</v>
+        <v>1.14478092771702</v>
       </c>
       <c r="E13" s="321">
-        <v>1.13695900223343</v>
+        <v>1.13695515456171</v>
       </c>
       <c r="F13" s="321">
-        <v>1.12070088515677</v>
+        <v>1.12069970379205</v>
       </c>
       <c r="G13" s="321">
-        <v>1.1076715853356398</v>
+        <v>1.10767216890363</v>
       </c>
       <c r="H13" s="321">
-        <v>1.0879668725419</v>
+        <v>1.08796413866825</v>
       </c>
       <c r="I13" s="321">
-        <v>1.06846939077428</v>
+        <v>1.0684715849497701</v>
       </c>
       <c r="J13" s="321">
-        <v>1.05217137580933</v>
+        <v>1.0521726605112</v>
       </c>
       <c r="K13" s="334">
-        <v>77.643178691565041</v>
+        <v>77.643134673422381</v>
       </c>
     </row>
     <row r="14">
@@ -59361,34 +59361,34 @@
         <v>139</v>
       </c>
       <c r="B23" s="322">
-        <v>1.3270888853751928</v>
+        <v>1.3270853989836353</v>
       </c>
       <c r="C23" s="322">
-        <v>1.3211534011760033</v>
+        <v>1.3211458388487891</v>
       </c>
       <c r="D23" s="322">
-        <v>1.3163631483173757</v>
+        <v>1.3163584047646593</v>
       </c>
       <c r="E23" s="322">
-        <v>1.3116342849361149</v>
+        <v>1.3116319611013627</v>
       </c>
       <c r="F23" s="322">
-        <v>1.3018150539273588</v>
+        <v>1.3018143404318761</v>
       </c>
       <c r="G23" s="322">
-        <v>1.2939458951420719</v>
+        <v>1.2939462475930279</v>
       </c>
       <c r="H23" s="322">
-        <v>1.2820450627166069</v>
+        <v>1.2820434115698725</v>
       </c>
       <c r="I23" s="322">
-        <v>1.2702693892691501</v>
+        <v>1.2702707144604937</v>
       </c>
       <c r="J23" s="322">
-        <v>1.2604260615842517</v>
+        <v>1.2604268374911039</v>
       </c>
       <c r="K23" s="335">
-        <v>72.384848784252853</v>
+        <v>72.384816423344844</v>
       </c>
       <c r="L23" s="333"/>
       <c r="M23" s="333"/>
@@ -60676,7 +60676,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="233" t="s">
-        <v>2</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1">
@@ -60785,40 +60785,40 @@
         <v>973</v>
       </c>
       <c r="C8" s="325">
-        <v>977.181894273525</v>
+        <v>977.181894273471</v>
       </c>
       <c r="D8" s="325">
-        <v>981.233478542335</v>
+        <v>981.23347240973794</v>
       </c>
       <c r="E8" s="325">
-        <v>985.222174021823</v>
+        <v>985.222168795177</v>
       </c>
       <c r="F8" s="325">
-        <v>989.171099334671</v>
+        <v>989.171097555932</v>
       </c>
       <c r="G8" s="325">
-        <v>993.037679611832</v>
+        <v>993.03768137285408</v>
       </c>
       <c r="H8" s="325">
-        <v>996.831829756644</v>
+        <v>996.831838927736</v>
       </c>
       <c r="I8" s="325">
-        <v>1000.54309598647</v>
+        <v>1000.5431079144199</v>
       </c>
       <c r="J8" s="325">
-        <v>1004.15624047861</v>
+        <v>1004.1562602217</v>
       </c>
       <c r="K8" s="325">
-        <v>1007.6599266590999</v>
+        <v>1007.6599550442701</v>
       </c>
       <c r="L8" s="336">
-        <v>1011.0604068079001</v>
+        <v>1011.06044927044</v>
       </c>
       <c r="M8" s="336">
-        <v>1014.37641277835</v>
+        <v>1014.37647025026</v>
       </c>
       <c r="N8" s="336">
-        <v>1017.6222885679</v>
+        <v>1017.6223577887599</v>
       </c>
     </row>
     <row r="9">
@@ -60829,40 +60829,40 @@
         <v>31280</v>
       </c>
       <c r="C9" s="325">
-        <v>31414.4395199135</v>
+        <v>31414.4395199118</v>
       </c>
       <c r="D9" s="325">
-        <v>31544.6898343312</v>
+        <v>31544.6896371805</v>
       </c>
       <c r="E9" s="325">
-        <v>31672.9184002082</v>
+        <v>31672.918232182</v>
       </c>
       <c r="F9" s="325">
-        <v>31799.8684349317</v>
+        <v>31799.868377748797</v>
       </c>
       <c r="G9" s="325">
-        <v>31924.1712417864</v>
+        <v>31924.171298399702</v>
       </c>
       <c r="H9" s="325">
-        <v>32046.145565044</v>
+        <v>32046.1458598762</v>
       </c>
       <c r="I9" s="325">
-        <v>32165.455336543502</v>
+        <v>32165.455720003098</v>
       </c>
       <c r="J9" s="325">
-        <v>32281.6106908232</v>
+        <v>32281.611325523903</v>
       </c>
       <c r="K9" s="325">
-        <v>32394.2471797499</v>
+        <v>32394.2480922761</v>
       </c>
       <c r="L9" s="336">
-        <v>32503.5658015941</v>
+        <v>32503.567166679597</v>
       </c>
       <c r="M9" s="336">
-        <v>32610.168747900098</v>
+        <v>32610.1705955068</v>
       </c>
       <c r="N9" s="336">
-        <v>32714.5171494389</v>
+        <v>32714.5193747505</v>
       </c>
     </row>
     <row r="10">
@@ -60873,40 +60873,40 @@
         <v>32253</v>
       </c>
       <c r="C10" s="337">
-        <v>32391.6214141871</v>
+        <v>32391.6214141853</v>
       </c>
       <c r="D10" s="337">
-        <v>32525.9233128735</v>
+        <v>32525.9231095902</v>
       </c>
       <c r="E10" s="337">
-        <v>32658.1405742301</v>
+        <v>32658.1404009772</v>
       </c>
       <c r="F10" s="337">
-        <v>32789.0395342663</v>
+        <v>32789.0394753047</v>
       </c>
       <c r="G10" s="337">
-        <v>32917.2089213982</v>
+        <v>32917.2089797725</v>
       </c>
       <c r="H10" s="337">
-        <v>33042.9773948007</v>
+        <v>33042.977698803996</v>
       </c>
       <c r="I10" s="337">
-        <v>33165.99843253</v>
+        <v>33165.9988279175</v>
       </c>
       <c r="J10" s="337">
-        <v>33285.7669313019</v>
+        <v>33285.7675857456</v>
       </c>
       <c r="K10" s="337">
-        <v>33401.907106408995</v>
+        <v>33401.9080473204</v>
       </c>
       <c r="L10" s="338">
-        <v>33514.626208402</v>
+        <v>33514.6276159501</v>
       </c>
       <c r="M10" s="338">
-        <v>33624.545160678404</v>
+        <v>33624.547065757</v>
       </c>
       <c r="N10" s="338">
-        <v>33732.1394380068</v>
+        <v>33732.141732539305</v>
       </c>
     </row>
     <row r="11">
@@ -62429,40 +62429,40 @@
         <v>139189</v>
       </c>
       <c r="C56" s="337">
-        <v>139327.62141418702</v>
+        <v>139327.62141418498</v>
       </c>
       <c r="D56" s="337">
-        <v>139461.923312874</v>
+        <v>139461.92310959</v>
       </c>
       <c r="E56" s="337">
-        <v>139594.14057423</v>
+        <v>139594.140400977</v>
       </c>
       <c r="F56" s="337">
-        <v>139725.039534266</v>
+        <v>139725.03947530498</v>
       </c>
       <c r="G56" s="337">
-        <v>139853.208921398</v>
+        <v>139853.20897977302</v>
       </c>
       <c r="H56" s="337">
-        <v>139978.97739480098</v>
+        <v>139978.977698804</v>
       </c>
       <c r="I56" s="337">
-        <v>140101.99843252997</v>
+        <v>140101.998827918</v>
       </c>
       <c r="J56" s="337">
-        <v>140221.766931302</v>
+        <v>140221.76758574598</v>
       </c>
       <c r="K56" s="337">
-        <v>140337.90710640902</v>
+        <v>140337.90804732</v>
       </c>
       <c r="L56" s="338">
-        <v>140450.626208402</v>
+        <v>140450.62761594998</v>
       </c>
       <c r="M56" s="338">
-        <v>140560.545160679</v>
+        <v>140560.547065757</v>
       </c>
       <c r="N56" s="338">
-        <v>140668.139438007</v>
+        <v>140668.141732539</v>
       </c>
     </row>
     <row r="57">
@@ -64312,7 +64312,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="233" t="s">
-        <v>2</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" ht="5.1" customHeight="1">
